--- a/Codigo/Bases/datos_administrativos/Indicadores_de_Género/VIOLENCIA/DATOS_VIF_2022.xlsx
+++ b/Codigo/Bases/datos_administrativos/Indicadores_de_Género/VIOLENCIA/DATOS_VIF_2022.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://inegobgt-my.sharepoint.com/personal/unidadgenero_ine_gob_gt/Documents/Documentos/Github/CompendioGenero2023/Codigo/Bases/datos_administrativos/Indicadores_de_Género/VIOLENCIA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="81" documentId="8_{93EEF499-51E5-4489-85CF-96D828BA89F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{533F131E-676F-47E9-8574-9C5D3E3074B3}"/>
+  <xr:revisionPtr revIDLastSave="187" documentId="8_{93EEF499-51E5-4489-85CF-96D828BA89F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{02EE7310-4407-4F11-BA43-E8E0D529F905}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11295" activeTab="2" xr2:uid="{42224056-59AD-4D71-BF62-39C7956F9B2E}"/>
+    <workbookView xWindow="3375" yWindow="3375" windowWidth="21600" windowHeight="11295" activeTab="2" xr2:uid="{42224056-59AD-4D71-BF62-39C7956F9B2E}"/>
   </bookViews>
   <sheets>
-    <sheet name="5_4" sheetId="1" r:id="rId1"/>
-    <sheet name="5_5" sheetId="2" r:id="rId2"/>
-    <sheet name="5_6" sheetId="3" r:id="rId3"/>
+    <sheet name="5_10" sheetId="1" r:id="rId1"/>
+    <sheet name="5_11" sheetId="2" r:id="rId2"/>
+    <sheet name="5_12" sheetId="3" r:id="rId3"/>
     <sheet name="Hoja3" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,10 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="36">
-  <si>
-    <t>pueblo de pertenencia</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="42">
   <si>
     <t>Ladinos(as)</t>
   </si>
@@ -125,28 +122,49 @@
     <t>Física - psicológica - sexual - patrimonial</t>
   </si>
   <si>
+    <t>Juzgados de Paz y de Familia</t>
+  </si>
+  <si>
+    <t>Bufetes Populares*</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Pueblo</t>
+  </si>
+  <si>
+    <t>MP</t>
+  </si>
+  <si>
+    <t>PGN</t>
+  </si>
+  <si>
+    <t>PNC</t>
+  </si>
+  <si>
+    <t>PDH</t>
+  </si>
+  <si>
     <t>Institución que recibió la denuncia</t>
   </si>
   <si>
-    <t>Ministerio Público</t>
-  </si>
-  <si>
-    <t>Procuraduría General de la Nación</t>
-  </si>
-  <si>
-    <t>Policía Nacional Civil</t>
-  </si>
-  <si>
-    <t>Juzgados de Paz y de Familia</t>
-  </si>
-  <si>
-    <t>Procuraduría de los Derechos Humanos</t>
-  </si>
-  <si>
-    <t>Bufetes Populares*</t>
-  </si>
-  <si>
-    <t>NA</t>
+    <t>Mujeres_19</t>
+  </si>
+  <si>
+    <t>Hombres_19</t>
+  </si>
+  <si>
+    <t>Mujeres_20</t>
+  </si>
+  <si>
+    <t>Hombres_20</t>
+  </si>
+  <si>
+    <t>Mujeres_21</t>
+  </si>
+  <si>
+    <t>Hombres_21</t>
   </si>
 </sst>
 </file>
@@ -518,37 +536,52 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C0A7855-B685-4B60-8B2C-7CDC73FEFE8E}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="8.42578125" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
       </c>
       <c r="B2">
         <v>14320</v>
@@ -557,15 +590,33 @@
         <v>2118</v>
       </c>
       <c r="D2">
+        <v>15134</v>
+      </c>
+      <c r="E2">
+        <v>2406</v>
+      </c>
+      <c r="F2">
+        <v>12449</v>
+      </c>
+      <c r="G2">
+        <v>1939</v>
+      </c>
+      <c r="H2">
+        <v>18511</v>
+      </c>
+      <c r="I2">
+        <v>2911</v>
+      </c>
+      <c r="J2">
+        <v>19133</v>
+      </c>
+      <c r="K2">
         <v>3315</v>
       </c>
-      <c r="E2">
-        <v>19133</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
         <v>7650</v>
@@ -574,15 +625,33 @@
         <v>1137</v>
       </c>
       <c r="D3">
+        <v>8348</v>
+      </c>
+      <c r="E3">
+        <v>1382</v>
+      </c>
+      <c r="F3">
+        <v>7777</v>
+      </c>
+      <c r="G3">
+        <v>1243</v>
+      </c>
+      <c r="H3">
+        <v>8497</v>
+      </c>
+      <c r="I3">
+        <v>1458</v>
+      </c>
+      <c r="J3">
+        <v>8609</v>
+      </c>
+      <c r="K3">
         <v>1517</v>
       </c>
-      <c r="E3">
-        <v>8609</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>46</v>
@@ -591,15 +660,33 @@
         <v>11</v>
       </c>
       <c r="D4">
+        <v>40</v>
+      </c>
+      <c r="E4">
+        <v>9</v>
+      </c>
+      <c r="F4">
+        <v>23</v>
+      </c>
+      <c r="G4">
+        <v>5</v>
+      </c>
+      <c r="H4">
+        <v>39</v>
+      </c>
+      <c r="I4">
+        <v>7</v>
+      </c>
+      <c r="J4">
+        <v>40</v>
+      </c>
+      <c r="K4">
         <v>6</v>
       </c>
-      <c r="E4">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
         <v>37</v>
@@ -608,15 +695,33 @@
         <v>12</v>
       </c>
       <c r="D5">
+        <v>62</v>
+      </c>
+      <c r="E5">
+        <v>10</v>
+      </c>
+      <c r="F5">
+        <v>13</v>
+      </c>
+      <c r="G5">
+        <v>5</v>
+      </c>
+      <c r="H5">
+        <v>36</v>
+      </c>
+      <c r="I5">
+        <v>2</v>
+      </c>
+      <c r="J5">
+        <v>35</v>
+      </c>
+      <c r="K5">
         <v>14</v>
       </c>
-      <c r="E5">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
         <v>91</v>
@@ -625,15 +730,33 @@
         <v>10</v>
       </c>
       <c r="D6">
+        <v>132</v>
+      </c>
+      <c r="E6">
+        <v>12</v>
+      </c>
+      <c r="F6">
+        <v>79</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+      <c r="H6">
+        <v>267</v>
+      </c>
+      <c r="I6">
+        <v>24</v>
+      </c>
+      <c r="J6">
+        <v>152</v>
+      </c>
+      <c r="K6">
         <v>25</v>
       </c>
-      <c r="E6">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
         <v>3876</v>
@@ -642,15 +765,33 @@
         <v>421</v>
       </c>
       <c r="D7">
+        <v>3692</v>
+      </c>
+      <c r="E7">
+        <v>439</v>
+      </c>
+      <c r="F7">
+        <v>3973</v>
+      </c>
+      <c r="G7">
+        <v>497</v>
+      </c>
+      <c r="H7">
+        <v>3916</v>
+      </c>
+      <c r="I7">
+        <v>510</v>
+      </c>
+      <c r="J7">
+        <v>3369</v>
+      </c>
+      <c r="K7">
         <v>477</v>
       </c>
-      <c r="E7">
-        <v>3369</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>234</v>
@@ -659,10 +800,28 @@
         <v>29</v>
       </c>
       <c r="D8">
+        <v>201</v>
+      </c>
+      <c r="E8">
+        <v>31</v>
+      </c>
+      <c r="F8">
+        <v>217</v>
+      </c>
+      <c r="G8">
+        <v>37</v>
+      </c>
+      <c r="H8">
+        <v>227</v>
+      </c>
+      <c r="I8">
+        <v>30</v>
+      </c>
+      <c r="J8">
+        <v>400</v>
+      </c>
+      <c r="K8">
         <v>102</v>
-      </c>
-      <c r="E8">
-        <v>400</v>
       </c>
     </row>
   </sheetData>
@@ -675,32 +834,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6182DA67-A281-4222-8C6A-A484B7FC1CB6}">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
         <v>8</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>10</v>
-      </c>
-      <c r="E1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B2">
         <v>3178</v>
@@ -717,7 +876,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3">
         <v>10048</v>
@@ -734,7 +893,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4">
         <v>119</v>
@@ -751,7 +910,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5">
         <v>378</v>
@@ -768,7 +927,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B6">
         <v>9115</v>
@@ -785,7 +944,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B7">
         <v>45</v>
@@ -802,7 +961,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B8">
         <v>48</v>
@@ -819,7 +978,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B9">
         <v>96</v>
@@ -836,7 +995,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B10">
         <v>1349</v>
@@ -853,24 +1012,24 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11">
         <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D11">
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12">
         <v>180</v>
@@ -887,7 +1046,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B13">
         <v>1564</v>
@@ -904,41 +1063,41 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B14">
         <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D14">
         <v>11</v>
       </c>
       <c r="E14" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B15">
         <v>3</v>
       </c>
       <c r="C15" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D15">
         <v>7</v>
       </c>
       <c r="E15" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B16">
         <v>115</v>
@@ -950,7 +1109,7 @@
         <v>72</v>
       </c>
       <c r="E16" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -963,31 +1122,34 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="31.140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
         <v>8</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>10</v>
-      </c>
-      <c r="E1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B2">
         <v>1721</v>
@@ -1004,7 +1166,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B3">
         <v>362</v>
@@ -1021,7 +1183,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B4">
         <v>9143</v>
@@ -1038,7 +1200,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B5">
         <v>14881</v>
@@ -1055,24 +1217,24 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C6" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D6" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E6" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B7">
         <v>147</v>
@@ -1098,12 +1260,155 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2766A457-DA71-4B73-B37A-EF315B44B2BA}">
-  <dimension ref="A1"/>
+  <dimension ref="E2:E29"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D29"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E2">
+        <v>21.313964218736047</v>
+      </c>
+    </row>
+    <row r="3" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E3">
+        <v>11.386300717411366</v>
+      </c>
+    </row>
+    <row r="4" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E4">
+        <v>6.8466644836721935E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E5">
+        <v>5.5070996933885029E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E6">
+        <v>0.13544488435090643</v>
+      </c>
+    </row>
+    <row r="7" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E7">
+        <v>5.7690590301550912</v>
+      </c>
+    </row>
+    <row r="8" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E8">
+        <v>0.34828684547375938</v>
+      </c>
+    </row>
+    <row r="9" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E9">
+        <v>28.477659036108715</v>
+      </c>
+    </row>
+    <row r="10" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E10">
+        <v>12.813681421724766</v>
+      </c>
+    </row>
+    <row r="11" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E11">
+        <v>5.953621290149734E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E12">
+        <v>5.2094186288810171E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E13">
+        <v>0.22623760902568987</v>
+      </c>
+    </row>
+    <row r="14" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E14">
+        <v>5.0144375316286132</v>
+      </c>
+    </row>
+    <row r="15" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E15">
+        <v>0.59536212901497332</v>
+      </c>
+    </row>
+    <row r="16" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E16">
+        <v>3.1524424731342844</v>
+      </c>
+    </row>
+    <row r="17" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E17">
+        <v>1.6923168517250615</v>
+      </c>
+    </row>
+    <row r="18" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E18">
+        <v>1.6372458547911767E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E19">
+        <v>1.78608638704492E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E20">
+        <v>1.4884053225374335E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E21">
+        <v>0.62661864078825946</v>
+      </c>
+    </row>
+    <row r="22" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E22">
+        <v>4.3163754353585569E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E23">
+        <v>4.9340636442115917</v>
+      </c>
+    </row>
+    <row r="24" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E24">
+        <v>2.2579108742892866</v>
+      </c>
+    </row>
+    <row r="25" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E25">
+        <v>8.9304319352246E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E26">
+        <v>2.0837674515524068E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E27">
+        <v>3.7210133063435832E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E28">
+        <v>0.70996933885035574</v>
+      </c>
+    </row>
+    <row r="29" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E29">
+        <v>0.15181734289881821</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Codigo/Bases/datos_administrativos/Indicadores_de_Género/VIOLENCIA/DATOS_VIF_2022.xlsx
+++ b/Codigo/Bases/datos_administrativos/Indicadores_de_Género/VIOLENCIA/DATOS_VIF_2022.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://inegobgt-my.sharepoint.com/personal/unidadgenero_ine_gob_gt/Documents/Documentos/Github/CompendioGenero2023/Codigo/Bases/datos_administrativos/Indicadores_de_Género/VIOLENCIA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="187" documentId="8_{93EEF499-51E5-4489-85CF-96D828BA89F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{02EE7310-4407-4F11-BA43-E8E0D529F905}"/>
+  <xr:revisionPtr revIDLastSave="263" documentId="8_{93EEF499-51E5-4489-85CF-96D828BA89F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4DC7C6AF-82D5-4640-9C0E-25A5CCD9D60C}"/>
   <bookViews>
-    <workbookView xWindow="3375" yWindow="3375" windowWidth="21600" windowHeight="11295" activeTab="2" xr2:uid="{42224056-59AD-4D71-BF62-39C7956F9B2E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{42224056-59AD-4D71-BF62-39C7956F9B2E}"/>
   </bookViews>
   <sheets>
     <sheet name="5_10" sheetId="1" r:id="rId1"/>
@@ -39,10 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="42">
-  <si>
-    <t>Ladinos(as)</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="28">
   <si>
     <t>Maya</t>
   </si>
@@ -89,82 +86,43 @@
     <t>Patrimonial</t>
   </si>
   <si>
-    <t>Física - psicológica</t>
-  </si>
-  <si>
-    <t>Física - sexual</t>
-  </si>
-  <si>
-    <t>Física - patrimonial</t>
-  </si>
-  <si>
-    <t>Psicológica - sexual</t>
-  </si>
-  <si>
-    <t>Psicológica - patrimonial</t>
-  </si>
-  <si>
-    <t>Sexual - patrimonial</t>
-  </si>
-  <si>
-    <t>Física - psicológica - sexual</t>
-  </si>
-  <si>
-    <t>Física - psicológica - patrimonial</t>
-  </si>
-  <si>
-    <t>Psicológica - sexual - patrimonial</t>
-  </si>
-  <si>
-    <t>Física - sexual - patrimonial</t>
-  </si>
-  <si>
-    <t>Física - psicológica - sexual - patrimonial</t>
-  </si>
-  <si>
     <t>Juzgados de Paz y de Familia</t>
   </si>
   <si>
-    <t>Bufetes Populares*</t>
-  </si>
-  <si>
-    <t>NA</t>
-  </si>
-  <si>
     <t>Pueblo</t>
   </si>
   <si>
-    <t>MP</t>
-  </si>
-  <si>
-    <t>PGN</t>
-  </si>
-  <si>
-    <t>PNC</t>
-  </si>
-  <si>
-    <t>PDH</t>
-  </si>
-  <si>
-    <t>Institución que recibió la denuncia</t>
-  </si>
-  <si>
-    <t>Mujeres_19</t>
-  </si>
-  <si>
-    <t>Hombres_19</t>
-  </si>
-  <si>
-    <t>Mujeres_20</t>
-  </si>
-  <si>
-    <t>Hombres_20</t>
-  </si>
-  <si>
-    <t>Mujeres_21</t>
-  </si>
-  <si>
-    <t>Hombres_21</t>
+    <t>Ladinos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Otras y sus combinaciones </t>
+  </si>
+  <si>
+    <t>Ministerio Público</t>
+  </si>
+  <si>
+    <t>Bufetes Populares</t>
+  </si>
+  <si>
+    <t>Procuraduría General de la Nación</t>
+  </si>
+  <si>
+    <t>Policía Nacional Civil</t>
+  </si>
+  <si>
+    <t>Procuraduría de los Derechos Humanos</t>
+  </si>
+  <si>
+    <t>Mujeres</t>
+  </si>
+  <si>
+    <t>Hombres</t>
+  </si>
+  <si>
+    <t>Año</t>
+  </si>
+  <si>
+    <t>Sexo</t>
   </si>
 </sst>
 </file>
@@ -536,52 +494,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C0A7855-B685-4B60-8B2C-7CDC73FEFE8E}">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" t="s">
-        <v>36</v>
-      </c>
       <c r="E1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I1" t="s">
-        <v>41</v>
-      </c>
-      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="B2">
         <v>14320</v>
@@ -590,33 +530,15 @@
         <v>2118</v>
       </c>
       <c r="D2">
-        <v>15134</v>
+        <v>19133</v>
       </c>
       <c r="E2">
-        <v>2406</v>
-      </c>
-      <c r="F2">
-        <v>12449</v>
-      </c>
-      <c r="G2">
-        <v>1939</v>
-      </c>
-      <c r="H2">
-        <v>18511</v>
-      </c>
-      <c r="I2">
-        <v>2911</v>
-      </c>
-      <c r="J2">
-        <v>19133</v>
-      </c>
-      <c r="K2">
         <v>3315</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3">
         <v>7650</v>
@@ -625,33 +547,15 @@
         <v>1137</v>
       </c>
       <c r="D3">
-        <v>8348</v>
+        <v>8609</v>
       </c>
       <c r="E3">
-        <v>1382</v>
-      </c>
-      <c r="F3">
-        <v>7777</v>
-      </c>
-      <c r="G3">
-        <v>1243</v>
-      </c>
-      <c r="H3">
-        <v>8497</v>
-      </c>
-      <c r="I3">
-        <v>1458</v>
-      </c>
-      <c r="J3">
-        <v>8609</v>
-      </c>
-      <c r="K3">
         <v>1517</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4">
         <v>46</v>
@@ -663,30 +567,12 @@
         <v>40</v>
       </c>
       <c r="E4">
-        <v>9</v>
-      </c>
-      <c r="F4">
-        <v>23</v>
-      </c>
-      <c r="G4">
-        <v>5</v>
-      </c>
-      <c r="H4">
-        <v>39</v>
-      </c>
-      <c r="I4">
-        <v>7</v>
-      </c>
-      <c r="J4">
-        <v>40</v>
-      </c>
-      <c r="K4">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5">
         <v>37</v>
@@ -695,33 +581,15 @@
         <v>12</v>
       </c>
       <c r="D5">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="E5">
-        <v>10</v>
-      </c>
-      <c r="F5">
-        <v>13</v>
-      </c>
-      <c r="G5">
-        <v>5</v>
-      </c>
-      <c r="H5">
-        <v>36</v>
-      </c>
-      <c r="I5">
-        <v>2</v>
-      </c>
-      <c r="J5">
-        <v>35</v>
-      </c>
-      <c r="K5">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6">
         <v>91</v>
@@ -730,33 +598,15 @@
         <v>10</v>
       </c>
       <c r="D6">
-        <v>132</v>
+        <v>152</v>
       </c>
       <c r="E6">
-        <v>12</v>
-      </c>
-      <c r="F6">
-        <v>79</v>
-      </c>
-      <c r="G6">
-        <v>2</v>
-      </c>
-      <c r="H6">
-        <v>267</v>
-      </c>
-      <c r="I6">
-        <v>24</v>
-      </c>
-      <c r="J6">
-        <v>152</v>
-      </c>
-      <c r="K6">
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7">
         <v>3876</v>
@@ -765,33 +615,15 @@
         <v>421</v>
       </c>
       <c r="D7">
-        <v>3692</v>
+        <v>3369</v>
       </c>
       <c r="E7">
-        <v>439</v>
-      </c>
-      <c r="F7">
-        <v>3973</v>
-      </c>
-      <c r="G7">
-        <v>497</v>
-      </c>
-      <c r="H7">
-        <v>3916</v>
-      </c>
-      <c r="I7">
-        <v>510</v>
-      </c>
-      <c r="J7">
-        <v>3369</v>
-      </c>
-      <c r="K7">
         <v>477</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8">
         <v>234</v>
@@ -800,27 +632,9 @@
         <v>29</v>
       </c>
       <c r="D8">
-        <v>201</v>
+        <v>400</v>
       </c>
       <c r="E8">
-        <v>31</v>
-      </c>
-      <c r="F8">
-        <v>217</v>
-      </c>
-      <c r="G8">
-        <v>37</v>
-      </c>
-      <c r="H8">
-        <v>227</v>
-      </c>
-      <c r="I8">
-        <v>30</v>
-      </c>
-      <c r="J8">
-        <v>400</v>
-      </c>
-      <c r="K8">
         <v>102</v>
       </c>
     </row>
@@ -832,34 +646,37 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6182DA67-A281-4222-8C6A-A484B7FC1CB6}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>9</v>
-      </c>
-      <c r="E1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2">
         <v>3178</v>
@@ -876,7 +693,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3">
         <v>10048</v>
@@ -893,7 +710,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4">
         <v>119</v>
@@ -910,7 +727,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5">
         <v>378</v>
@@ -927,189 +744,19 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B6">
-        <v>9115</v>
+        <v>12531</v>
       </c>
       <c r="C6">
-        <v>1022</v>
+        <v>1457</v>
       </c>
       <c r="D6">
-        <v>10134</v>
+        <v>13248</v>
       </c>
       <c r="E6">
-        <v>1332</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7">
-        <v>45</v>
-      </c>
-      <c r="C7">
-        <v>2</v>
-      </c>
-      <c r="D7">
-        <v>46</v>
-      </c>
-      <c r="E7">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8">
-        <v>48</v>
-      </c>
-      <c r="C8">
-        <v>5</v>
-      </c>
-      <c r="D8">
-        <v>47</v>
-      </c>
-      <c r="E8">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9">
-        <v>96</v>
-      </c>
-      <c r="C9">
-        <v>3</v>
-      </c>
-      <c r="D9">
-        <v>167</v>
-      </c>
-      <c r="E9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10">
-        <v>1349</v>
-      </c>
-      <c r="C10">
-        <v>282</v>
-      </c>
-      <c r="D10">
-        <v>1459</v>
-      </c>
-      <c r="E10">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11">
-        <v>4</v>
-      </c>
-      <c r="C11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12">
-        <v>180</v>
-      </c>
-      <c r="C12">
-        <v>6</v>
-      </c>
-      <c r="D12">
-        <v>169</v>
-      </c>
-      <c r="E12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13">
-        <v>1564</v>
-      </c>
-      <c r="C13">
-        <v>135</v>
-      </c>
-      <c r="D13">
-        <v>1135</v>
-      </c>
-      <c r="E13">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14">
-        <v>12</v>
-      </c>
-      <c r="C14" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14">
-        <v>11</v>
-      </c>
-      <c r="E14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15">
-        <v>3</v>
-      </c>
-      <c r="C15" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15">
-        <v>7</v>
-      </c>
-      <c r="E15" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>26</v>
-      </c>
-      <c r="B16">
-        <v>115</v>
-      </c>
-      <c r="C16">
-        <v>2</v>
-      </c>
-      <c r="D16">
-        <v>72</v>
-      </c>
-      <c r="E16" t="s">
-        <v>29</v>
+        <v>1762</v>
       </c>
     </row>
   </sheetData>
@@ -1119,138 +766,303 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D5742B7-A766-42D0-86C6-3D31722BC9CD}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.140625" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D1" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="E1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2">
+        <v>22</v>
+      </c>
+      <c r="F1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2018</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2">
         <v>1721</v>
       </c>
-      <c r="C2">
+      <c r="D2">
+        <v>362</v>
+      </c>
+      <c r="E2">
+        <v>9143</v>
+      </c>
+      <c r="F2">
+        <v>14881</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2018</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3">
         <v>28</v>
       </c>
-      <c r="D2">
+      <c r="D3">
+        <v>56</v>
+      </c>
+      <c r="E3">
+        <v>1527</v>
+      </c>
+      <c r="F3">
+        <v>2109</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2019</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4">
+        <v>2135</v>
+      </c>
+      <c r="D4">
+        <v>311</v>
+      </c>
+      <c r="E4">
+        <v>11197</v>
+      </c>
+      <c r="F4">
+        <v>13857</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2019</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5">
+        <v>59</v>
+      </c>
+      <c r="D5">
+        <v>62</v>
+      </c>
+      <c r="E5">
+        <v>2077</v>
+      </c>
+      <c r="F5">
+        <v>2077</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2020</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6">
+        <v>1495</v>
+      </c>
+      <c r="D6">
+        <v>160</v>
+      </c>
+      <c r="E6">
+        <v>10689</v>
+      </c>
+      <c r="F6">
+        <v>12114</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2020</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7">
+        <v>26</v>
+      </c>
+      <c r="D7">
+        <v>40</v>
+      </c>
+      <c r="E7">
+        <v>1805</v>
+      </c>
+      <c r="F7">
+        <v>1851</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2021</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8">
+        <v>1814</v>
+      </c>
+      <c r="D8">
+        <v>247</v>
+      </c>
+      <c r="E8">
+        <v>12661</v>
+      </c>
+      <c r="F8">
+        <v>16700</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>71</v>
+      </c>
+      <c r="L8" s="1"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2021</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9">
+        <v>42</v>
+      </c>
+      <c r="D9">
+        <v>54</v>
+      </c>
+      <c r="E9">
+        <v>2380</v>
+      </c>
+      <c r="F9">
+        <v>2451</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2022</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10">
         <v>2190</v>
       </c>
-      <c r="E2">
+      <c r="D10">
+        <v>227</v>
+      </c>
+      <c r="E10">
+        <v>11989</v>
+      </c>
+      <c r="F10">
+        <v>17212</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2022</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11">
         <v>52</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3">
-        <v>362</v>
-      </c>
-      <c r="C3">
-        <v>56</v>
-      </c>
-      <c r="D3">
-        <v>227</v>
-      </c>
-      <c r="E3">
+      <c r="D11">
         <v>47</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4">
-        <v>9143</v>
-      </c>
-      <c r="C4">
-        <v>1527</v>
-      </c>
-      <c r="D4">
-        <v>11989</v>
-      </c>
-      <c r="E4">
+      <c r="E11">
         <v>2649</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5">
-        <v>14881</v>
-      </c>
-      <c r="C5">
-        <v>2109</v>
-      </c>
-      <c r="D5">
-        <v>17212</v>
-      </c>
-      <c r="E5">
+      <c r="F11">
         <v>2679</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
         <v>29</v>
       </c>
-      <c r="C6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7">
-        <v>147</v>
-      </c>
-      <c r="C7">
-        <v>18</v>
-      </c>
-      <c r="D7">
-        <v>120</v>
-      </c>
-      <c r="E7">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E16" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
